--- a/Respone - Do not Delete.xlsx
+++ b/Respone - Do not Delete.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/56ad3e6ef890cefc/Desktop/WorkList Helper/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/56ad3e6ef890cefc/Desktop/EGAT_SBK_Worklist_Convert/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="10" documentId="8_{E4663FA9-C578-47A4-A54A-9553A1CB4FED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{54EF2565-C848-474A-A5D1-ED0A2CC57E1F}"/>
+  <xr:revisionPtr revIDLastSave="57" documentId="8_{E4663FA9-C578-47A4-A54A-9553A1CB4FED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D0788F27-F62D-4AD5-86F7-5C940756F14D}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Template" sheetId="1" r:id="rId1"/>
@@ -1070,7 +1070,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="382" uniqueCount="350">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="368">
   <si>
     <t>อัตรากำลัง (จำนวนคน)</t>
   </si>
@@ -2173,6 +2173,60 @@
   </si>
   <si>
     <t>Respone</t>
+  </si>
+  <si>
+    <t>MMO = Overhaul</t>
+  </si>
+  <si>
+    <t>Activity Local.</t>
+  </si>
+  <si>
+    <t>Activity Local Name</t>
+  </si>
+  <si>
+    <t>Inspection &amp; Clean</t>
+  </si>
+  <si>
+    <t>MMCF</t>
+  </si>
+  <si>
+    <t>Change Filter</t>
+  </si>
+  <si>
+    <t>MMCP</t>
+  </si>
+  <si>
+    <t>Check Pressure (Safety Valve Test) &amp; Recharge Pressure</t>
+  </si>
+  <si>
+    <t>Overhaul</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MMTW </t>
+  </si>
+  <si>
+    <t>MMTW</t>
+  </si>
+  <si>
+    <t>MMO</t>
+  </si>
+  <si>
+    <t>MMR</t>
+  </si>
+  <si>
+    <t>MMCIL</t>
+  </si>
+  <si>
+    <t>Inspect (VI or DI) &amp; Clean</t>
+  </si>
+  <si>
+    <t>Replace, Recharge N2 (for Accumulator)</t>
+  </si>
+  <si>
+    <t>Clean Tubes, Inspect by VI or ET, Leak test</t>
+  </si>
+  <si>
+    <t>MMI-T</t>
   </si>
 </sst>
 </file>
@@ -2575,10 +2629,6 @@
 </styleSheet>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -3015,10 +3065,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53869E18-FC12-417F-B99B-B85561E6605D}">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:D151"/>
+  <dimension ref="A1:G151"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3026,10 +3076,11 @@
     <col min="1" max="1" width="16.42578125" customWidth="1"/>
     <col min="2" max="2" width="14.42578125" customWidth="1"/>
     <col min="3" max="3" width="13" customWidth="1"/>
-    <col min="5" max="5" width="33.140625" customWidth="1"/>
+    <col min="5" max="5" width="24.85546875" customWidth="1"/>
+    <col min="7" max="7" width="52.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="58.5" customHeight="1">
+    <row r="1" spans="1:7" ht="58.5" customHeight="1">
       <c r="A1" s="25" t="s">
         <v>349</v>
       </c>
@@ -3042,8 +3093,17 @@
       <c r="D1" s="26" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="26" t="s">
+        <v>351</v>
+      </c>
+      <c r="F1" s="26" t="s">
+        <v>349</v>
+      </c>
+      <c r="G1" s="26" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
         <v>54</v>
       </c>
@@ -3056,8 +3116,17 @@
       <c r="D2" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="E2" t="s">
+        <v>367</v>
+      </c>
+      <c r="F2" t="s">
+        <v>48</v>
+      </c>
+      <c r="G2" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" t="s">
         <v>57</v>
       </c>
@@ -3070,8 +3139,17 @@
       <c r="D3" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3" t="s">
+        <v>354</v>
+      </c>
+      <c r="F3" t="s">
+        <v>48</v>
+      </c>
+      <c r="G3" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" t="s">
         <v>59</v>
       </c>
@@ -3084,8 +3162,17 @@
       <c r="D4" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="E4" t="s">
+        <v>356</v>
+      </c>
+      <c r="F4" t="s">
+        <v>48</v>
+      </c>
+      <c r="G4" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" t="s">
         <v>62</v>
       </c>
@@ -3098,8 +3185,17 @@
       <c r="D5" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5" t="s">
+        <v>350</v>
+      </c>
+      <c r="F5" t="s">
+        <v>48</v>
+      </c>
+      <c r="G5" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" t="s">
         <v>64</v>
       </c>
@@ -3112,8 +3208,17 @@
       <c r="D6" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="7" spans="1:4">
+      <c r="E6" t="s">
+        <v>360</v>
+      </c>
+      <c r="F6" t="s">
+        <v>48</v>
+      </c>
+      <c r="G6" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" t="s">
         <v>66</v>
       </c>
@@ -3126,32 +3231,68 @@
       <c r="D7" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="8" spans="1:4">
+      <c r="E7" t="s">
+        <v>367</v>
+      </c>
+      <c r="F7" t="s">
+        <v>49</v>
+      </c>
+      <c r="G7" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" t="s">
         <v>52</v>
       </c>
       <c r="B8" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="9" spans="1:4">
+      <c r="E8" t="s">
+        <v>361</v>
+      </c>
+      <c r="F8" t="s">
+        <v>49</v>
+      </c>
+      <c r="G8" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" t="s">
         <v>70</v>
       </c>
       <c r="B9" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="10" spans="1:4">
+      <c r="E9" t="s">
+        <v>362</v>
+      </c>
+      <c r="F9" t="s">
+        <v>49</v>
+      </c>
+      <c r="G9" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" t="s">
         <v>72</v>
       </c>
       <c r="B10" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="11" spans="1:4">
+      <c r="E10" t="s">
+        <v>363</v>
+      </c>
+      <c r="F10" t="s">
+        <v>49</v>
+      </c>
+      <c r="G10" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" t="s">
         <v>74</v>
       </c>
@@ -3159,7 +3300,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:7">
       <c r="A12" t="s">
         <v>76</v>
       </c>
@@ -3167,7 +3308,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:7">
       <c r="A13" t="s">
         <v>78</v>
       </c>
@@ -3175,7 +3316,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:7">
       <c r="A14" t="s">
         <v>80</v>
       </c>
@@ -3183,7 +3324,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:7">
       <c r="A15" t="s">
         <v>82</v>
       </c>
@@ -3191,7 +3332,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:7">
       <c r="A16" t="s">
         <v>84</v>
       </c>
@@ -4281,7 +4422,8 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 

--- a/Respone - Do not Delete.xlsx
+++ b/Respone - Do not Delete.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/56ad3e6ef890cefc/Desktop/EGAT_SBK_Worklist_Convert/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="57" documentId="8_{E4663FA9-C578-47A4-A54A-9553A1CB4FED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D0788F27-F62D-4AD5-86F7-5C940756F14D}"/>
+  <xr:revisionPtr revIDLastSave="65" documentId="8_{E4663FA9-C578-47A4-A54A-9553A1CB4FED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9ECBCA27-5FE4-4010-AF37-873C074E50FC}"/>
   <bookViews>
-    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Template" sheetId="1" r:id="rId1"/>
@@ -2629,6 +2629,10 @@
 </styleSheet>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -3067,8 +3071,8 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:G151"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
